--- a/Дисциплины/Модели и методы интеллектуального анализа данных/Контрольные карты/Практика_Контрольные карты расчёты для 2-го варианта (Карманов А.А. РИСПji-м-23).xlsx
+++ b/Дисциплины/Модели и методы интеллектуального анализа данных/Контрольные карты/Практика_Контрольные карты расчёты для 2-го варианта (Карманов А.А. РИСПji-м-23).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\SKU_2023\Дисциплины\Модели и методы интеллектуального анализа данных\Контрольные карты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60090F75-7A34-4F61-9736-1E7E2C014DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DBCA3B-7F53-4DDC-B75A-644767A4FBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рис. 1" sheetId="15" r:id="rId1"/>
@@ -24,6 +24,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -452,9 +461,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,6 +471,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,6 +1282,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1337,7 +1347,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-KZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1371,7 +1381,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="472607720"/>
@@ -1409,7 +1419,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1748,7 +1758,7 @@
               </c:extLst>
               <c:f>'Рис. 2'!$G$2:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0.29500000000000026</c:v>
@@ -2020,6 +2030,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2083,7 +2094,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-KZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2117,7 +2128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="392480104"/>
@@ -2155,7 +2166,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3009,7 +3020,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-KZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3043,7 +3054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565646288"/>
@@ -3081,7 +3092,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3689,6 +3700,7 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3751,7 +3763,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="ru-KZ"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3785,7 +3797,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-KZ"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="565643936"/>
@@ -3823,7 +3835,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="ru-KZ"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6430,7 +6442,7 @@
   <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H22"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6442,7 +6454,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -6452,15 +6464,15 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="15"/>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4">
         <v>1</v>
       </c>
@@ -6476,8 +6488,8 @@
       <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" t="s">
         <v>21</v>
       </c>
@@ -7377,8 +7389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7416,7 +7428,7 @@
         <v>5.56</v>
       </c>
       <c r="B2" s="3">
-        <f>AVERAGE($A$2:$A$31)</f>
+        <f>AVERAGE($A$2:$A$21)</f>
         <v>5.5729999999999995</v>
       </c>
       <c r="C2">
@@ -7431,8 +7443,8 @@
         <f>'Рис. 1'!H3</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G2" s="3">
-        <f>AVERAGE($F$2:$F$31)</f>
+      <c r="G2" s="5">
+        <f>AVERAGE($F$2:$F$21)</f>
         <v>0.29500000000000026</v>
       </c>
       <c r="H2">
@@ -7446,7 +7458,7 @@
         <v>5.54</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B66" si="0">AVERAGE($A$2:$A$31)</f>
+        <f t="shared" ref="B3:B22" si="0">AVERAGE($A$2:$A$21)</f>
         <v>5.5729999999999995</v>
       </c>
       <c r="C3">
@@ -7461,8 +7473,8 @@
         <f>'Рис. 1'!H4</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="1">AVERAGE($F$2:$F$31)</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G21" si="1">AVERAGE($F$2:$F$21)</f>
         <v>0.29500000000000026</v>
       </c>
       <c r="H3">
@@ -7491,7 +7503,7 @@
         <f>'Рис. 1'!H5</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7521,7 +7533,7 @@
         <f>'Рис. 1'!H6</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7551,7 +7563,7 @@
         <f>'Рис. 1'!H7</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7581,7 +7593,7 @@
         <f>'Рис. 1'!H8</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7611,7 +7623,7 @@
         <f>'Рис. 1'!H9</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7641,7 +7653,7 @@
         <f>'Рис. 1'!H10</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7671,7 +7683,7 @@
         <f>'Рис. 1'!H11</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7701,7 +7713,7 @@
         <f>'Рис. 1'!H12</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7731,7 +7743,7 @@
         <f>'Рис. 1'!H13</f>
         <v>0.5</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7761,7 +7773,7 @@
         <f>'Рис. 1'!H14</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7791,7 +7803,7 @@
         <f>'Рис. 1'!H15</f>
         <v>0.39999999999999947</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7821,7 +7833,7 @@
         <f>'Рис. 1'!H16</f>
         <v>0.30000000000000071</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7851,7 +7863,7 @@
         <f>'Рис. 1'!H17</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7881,7 +7893,7 @@
         <f>'Рис. 1'!H18</f>
         <v>0.29999999999999982</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7911,7 +7923,7 @@
         <f>'Рис. 1'!H19</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7941,7 +7953,7 @@
         <f>'Рис. 1'!H20</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -7971,7 +7983,7 @@
         <f>'Рис. 1'!H21</f>
         <v>0.20000000000000018</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -8001,7 +8013,7 @@
         <f>'Рис. 1'!H22</f>
         <v>0.40000000000000036</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0.29500000000000026</v>
       </c>
@@ -8421,7 +8433,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:L1048576"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8658,7 +8670,7 @@
         <v>5.8</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B67" si="0">ABS(A5-A4)</f>
+        <f t="shared" ref="B5:B20" si="0">ABS(A5-A4)</f>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -8831,7 +8843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8896,7 +8908,7 @@
         <v>5.6</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B66" si="0">AVERAGE($A$2:$A$31)</f>
+        <f t="shared" ref="B3:B21" si="0">AVERAGE($A$2:$A$31)</f>
         <v>5.55</v>
       </c>
       <c r="C3">
@@ -8912,7 +8924,7 @@
         <v>0.20000000000000018</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G66" si="1">AVERAGE($F$3:$F$31)</f>
+        <f t="shared" ref="G3:G21" si="1">AVERAGE($F$3:$F$31)</f>
         <v>0.11052631578947363</v>
       </c>
       <c r="H3">
@@ -9900,19 +9912,19 @@
         <f t="shared" si="0"/>
         <v>5.6</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>5.3</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>5.4</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>5.4</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>5.4</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>5.5</v>
       </c>
     </row>
@@ -9937,19 +9949,19 @@
         <f t="shared" ref="E2" si="4">O2+O23</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>5.5</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="11">
         <v>5.4</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11">
         <v>5.4</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="11">
         <v>5.3</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="11">
         <v>5.3</v>
       </c>
     </row>
@@ -9974,19 +9986,19 @@
         <f t="shared" ref="E3:E20" si="9">O3+O24</f>
         <v>5.5</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>5.5</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>5.3</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="11">
         <v>5.3</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>5.3</v>
       </c>
-      <c r="O3" s="12">
+      <c r="O3" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10011,19 +10023,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>5.7</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>5.3</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="11">
         <v>5.4</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>5.4</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10048,19 +10060,19 @@
         <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>5.5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>5.4</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>5.4</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>5.4</v>
       </c>
-      <c r="O5" s="12">
+      <c r="O5" s="11">
         <v>5.3</v>
       </c>
     </row>
@@ -10085,19 +10097,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>5.4</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>5.4</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>5.5</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>5.5</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10122,19 +10134,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>5.5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>5.4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>5.4</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>5.4</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10159,19 +10171,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>5.6</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>5.4</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>5.5</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>5.4</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10196,19 +10208,19 @@
         <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>5.4</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>5.4</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>5.4</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>5.3</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>5.3</v>
       </c>
     </row>
@@ -10233,19 +10245,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>5.5</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>5.3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>5.4</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>5.3</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10270,19 +10282,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>5.2</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>5.4</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>5.5</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>5.4</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10307,19 +10319,19 @@
         <f t="shared" si="9"/>
         <v>5.6</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>5.4</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>5.4</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>5.4</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>5.3</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>5.5</v>
       </c>
     </row>
@@ -10344,19 +10356,19 @@
         <f t="shared" si="9"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>5.4</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>5.4</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>5.4</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>5.5</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>5.8</v>
       </c>
     </row>
@@ -10381,19 +10393,19 @@
         <f t="shared" si="9"/>
         <v>5.6</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>5.3</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>5.4</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>5.4</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>5.4</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>5.5</v>
       </c>
     </row>
@@ -10418,19 +10430,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>5.4</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>5.5</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>5.5</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>5.5</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10455,19 +10467,19 @@
         <f t="shared" si="9"/>
         <v>5.8</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>5.4</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>5.4</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>5.4</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>5.4</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>5.7</v>
       </c>
     </row>
@@ -10492,19 +10504,19 @@
         <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>5.4</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>5.3</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>5.3</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>5.3</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>5.3</v>
       </c>
     </row>
@@ -10529,19 +10541,19 @@
         <f t="shared" si="9"/>
         <v>5.6</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>5.4</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>5.4</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <v>5.4</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>5.4</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O18" s="11">
         <v>5.5</v>
       </c>
     </row>
@@ -10566,19 +10578,19 @@
         <f t="shared" si="9"/>
         <v>5.5</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>5.6</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>5.4</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>5.4</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <v>5.4</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="11">
         <v>5.4</v>
       </c>
     </row>
@@ -10603,19 +10615,19 @@
         <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>5.6</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>5.3</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="11">
         <v>5.5</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>5.5</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="11">
         <v>5.3</v>
       </c>
     </row>
